--- a/data/results/CG118_inferred_sample_proportions.xlsx
+++ b/data/results/CG118_inferred_sample_proportions.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,206 +411,393 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.028564453125</v>
+        <v>0.047607421875</v>
       </c>
       <c r="B2">
-        <v>0.536376953125</v>
+        <v>0.123779296875</v>
       </c>
       <c r="C2">
-        <v>0.123779296875</v>
+        <v>0.453857421875</v>
       </c>
       <c r="D2">
-        <v>0.123779296875</v>
+        <v>0.453857421875</v>
       </c>
       <c r="E2">
-        <v>0.028564453125</v>
+        <v>0.174560546875</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>0.0232086181640625</v>
+        <v>0.0386810302734375</v>
       </c>
       <c r="B3">
-        <v>0.0232086181640625</v>
+        <v>0.1005706787109375</v>
       </c>
       <c r="C3">
-        <v>0.4358062744140625</v>
+        <v>0.1418304443359375</v>
       </c>
       <c r="D3">
-        <v>0.1005706787109375</v>
+        <v>0.0386810302734375</v>
       </c>
       <c r="E3">
-        <v>0.0232086181640625</v>
+        <v>0.0148773193359375</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>0.08171367645263672</v>
+        <v>0.03142833709716797</v>
       </c>
       <c r="B4">
         <v>0.08171367645263672</v>
       </c>
       <c r="C4">
-        <v>0.01885700225830078</v>
+        <v>0.01208782196044922</v>
       </c>
       <c r="D4">
-        <v>0.08171367645263672</v>
+        <v>0.1152372360229492</v>
       </c>
       <c r="E4">
-        <v>0.08171367645263672</v>
+        <v>0.01208782196044922</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>0.01885700225830078</v>
+        <v>0.087246373295784</v>
       </c>
       <c r="B5">
-        <v>0.01885700225830078</v>
+        <v>0.0497942715883255</v>
       </c>
       <c r="C5">
-        <v>0.08171367645263672</v>
+        <v>0.007366016507148743</v>
       </c>
       <c r="D5">
-        <v>0.3540925979614258</v>
+        <v>0.007366016507148743</v>
       </c>
       <c r="E5">
-        <v>0.01885700225830078</v>
+        <v>0.007366016507148743</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>0.15234375</v>
+        <v>0.04894308745861053</v>
       </c>
       <c r="B6">
-        <v>0.15234375</v>
+        <v>0.3042983263731003</v>
       </c>
       <c r="C6">
-        <v>0.15234375</v>
+        <v>0.04501454532146454</v>
       </c>
       <c r="D6">
-        <v>0.15234375</v>
+        <v>0.04501454532146454</v>
       </c>
       <c r="E6">
-        <v>0.03515625</v>
+        <v>0.04501454532146454</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>0.66015625</v>
+        <v>0.0966796875</v>
       </c>
       <c r="B7">
-        <v>0.03515625</v>
+        <v>0.0263671875</v>
       </c>
       <c r="C7">
-        <v>0.03515625</v>
+        <v>0.0263671875</v>
       </c>
       <c r="D7">
-        <v>0.03515625</v>
+        <v>0.1201171875</v>
       </c>
       <c r="E7">
-        <v>0.15234375</v>
+        <v>0.0263671875</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>0.00494384765625</v>
+        <v>0.1586675643920898</v>
       </c>
       <c r="B8">
-        <v>0.13092041015625</v>
+        <v>0.04327297210693359</v>
       </c>
       <c r="C8">
-        <v>0.13092041015625</v>
+        <v>0.1125097274780273</v>
       </c>
       <c r="D8">
-        <v>0.13092041015625</v>
+        <v>0.01809597015380859</v>
       </c>
       <c r="E8">
-        <v>0.09283447265625</v>
+        <v>0.01809597015380859</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>0.02454757690429688</v>
+        <v>0.01557826995849609</v>
       </c>
       <c r="B9">
-        <v>0.01740646362304688</v>
+        <v>0.01557826995849609</v>
       </c>
       <c r="C9">
-        <v>0.004016876220703125</v>
+        <v>0.004248619079589844</v>
       </c>
       <c r="D9">
-        <v>0.01740646362304688</v>
+        <v>0.001776695251464844</v>
       </c>
       <c r="E9">
-        <v>0.4609489440917969</v>
+        <v>0.01935482025146484</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>0.001062154769897461</v>
+        <v>0.06216601934283972</v>
       </c>
       <c r="B10">
-        <v>0.003263711929321289</v>
+        <v>0.006520911119878292</v>
       </c>
       <c r="C10">
-        <v>0.01414275169372559</v>
+        <v>0.01695436891168356</v>
       </c>
       <c r="D10">
-        <v>0.0007531642913818359</v>
+        <v>0.007090008817613125</v>
       </c>
       <c r="E10">
-        <v>0.01994490623474121</v>
+        <v>0.03530112560838461</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>0.000863000750541687</v>
+        <v>0.0009957700967788696</v>
       </c>
       <c r="B11">
-        <v>0.0006119459867477417</v>
+        <v>0.009493008255958557</v>
       </c>
       <c r="C11">
-        <v>0.0006119459867477417</v>
+        <v>0.00396980345249176</v>
       </c>
       <c r="D11">
-        <v>0.002651765942573547</v>
+        <v>0.00396980345249176</v>
       </c>
       <c r="E11">
-        <v>0.01620523631572723</v>
+        <v>0.08356191217899323</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>0.0005258910823613405</v>
+        <v>0.004315003752708435</v>
       </c>
       <c r="B12">
-        <v>1.98588240891695e-05</v>
+        <v>0.004315003752708435</v>
       </c>
       <c r="C12">
-        <v>0.002278861356899142</v>
+        <v>0.001804456114768982</v>
       </c>
       <c r="D12">
-        <v>8.605490438640118e-05</v>
+        <v>0.001804456114768982</v>
       </c>
       <c r="E12">
-        <v>0.009875065879896283</v>
+        <v>0.03798268735408783</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>0.003213778836652637</v>
+        <v>0.2399846911430359</v>
       </c>
       <c r="B13">
-        <v>0.0001213594805449247</v>
+        <v>0.01785010099411011</v>
       </c>
       <c r="C13">
-        <v>0.0003729045856744051</v>
+        <v>0.01785010099411011</v>
       </c>
       <c r="D13">
-        <v>0.0005258910823613405</v>
+        <v>0.0273701548576355</v>
       </c>
       <c r="E13">
-        <v>0.0603476248215884</v>
+        <v>0.0273701548576355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>0.1090839505195618</v>
+      </c>
+      <c r="B14">
+        <v>0.0773504376411438</v>
+      </c>
+      <c r="C14">
+        <v>0.008113682270050049</v>
+      </c>
+      <c r="D14">
+        <v>0.01244097948074341</v>
+      </c>
+      <c r="E14">
+        <v>0.01244097948074341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>0.003109518438577652</v>
+      </c>
+      <c r="B15">
+        <v>0.008084747940301895</v>
+      </c>
+      <c r="C15">
+        <v>0.008084747940301895</v>
+      </c>
+      <c r="D15">
+        <v>0.008084747940301895</v>
+      </c>
+      <c r="E15">
+        <v>0.1232658065855503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>0.04930442199110985</v>
+      </c>
+      <c r="B16">
+        <v>0.1281914971768856</v>
+      </c>
+      <c r="C16">
+        <v>0.1281914971768856</v>
+      </c>
+      <c r="D16">
+        <v>0.1281914971768856</v>
+      </c>
+      <c r="E16">
+        <v>0.09711688384413719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>7.250141607073601e-06</v>
+      </c>
+      <c r="B17">
+        <v>1.885036817839136e-05</v>
+      </c>
+      <c r="C17">
+        <v>8.587389947933843e-05</v>
+      </c>
+      <c r="D17">
+        <v>0.003609098980632552</v>
+      </c>
+      <c r="E17">
+        <v>0.001807592575460149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>8.440596957370872e-05</v>
+      </c>
+      <c r="B18">
+        <v>0.0002194555208916427</v>
+      </c>
+      <c r="C18">
+        <v>0.000999741817395261</v>
+      </c>
+      <c r="D18">
+        <v>0.002623139394017926</v>
+      </c>
+      <c r="E18">
+        <v>0.02104394813159161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>0.003233092411392136</v>
+      </c>
+      <c r="B19">
+        <v>5.90752279094886e-05</v>
+      </c>
+      <c r="C19">
+        <v>0.0001535955925646704</v>
+      </c>
+      <c r="D19">
+        <v>6.423088416340761e-05</v>
+      </c>
+      <c r="E19">
+        <v>0.005122592101542978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>0.002106724732584553</v>
+      </c>
+      <c r="B20">
+        <v>0.0005010454515286256</v>
+      </c>
+      <c r="C20">
+        <v>0.001302718173974426</v>
+      </c>
+      <c r="D20">
+        <v>0.0005447730545711238</v>
+      </c>
+      <c r="E20">
+        <v>0.04344717004642007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>0.0001093190076062456</v>
+      </c>
+      <c r="B21">
+        <v>0.0002842294197762385</v>
+      </c>
+      <c r="C21">
+        <v>0.005898637711652555</v>
+      </c>
+      <c r="D21">
+        <v>0.0005710791010642424</v>
+      </c>
+      <c r="E21">
+        <v>0.02725522303080652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>9.394602216161729e-05</v>
+      </c>
+      <c r="B22">
+        <v>0.001112738440269823</v>
+      </c>
+      <c r="C22">
+        <v>0.0004653269841128349</v>
+      </c>
+      <c r="D22">
+        <v>0.0004907711024770833</v>
+      </c>
+      <c r="E22">
+        <v>0.02342245729209935</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>0.0003324706502605412</v>
+      </c>
+      <c r="B23">
+        <v>4.93767081322094e-05</v>
+      </c>
+      <c r="C23">
+        <v>0.0002249383370467317</v>
+      </c>
+      <c r="D23">
+        <v>0.0002372379841075745</v>
+      </c>
+      <c r="E23">
+        <v>0.01132237925741131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>0.0002416439296160089</v>
+      </c>
+      <c r="B24">
+        <v>0.0005748424168972033</v>
+      </c>
+      <c r="C24">
+        <v>0.002618726565865037</v>
+      </c>
+      <c r="D24">
+        <v>0.002761918753252379</v>
+      </c>
+      <c r="E24">
+        <v>0.1318148597498625</v>
       </c>
     </row>
   </sheetData>
